--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\RPG\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1A0BB8DA-3921-4D20-884B-21C06D52CFD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6706C5E4-8AF1-45DD-A7F3-DBB3140D0F6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C37821-33E1-4610-B898-6C4D2C3B09CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -1105,22 +1105,22 @@
   </sheetPr>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="53.59765625" customWidth="1"/>
-    <col min="6" max="6" width="2.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1128,8 +1128,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -1139,7 +1139,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>24</v>
@@ -1156,7 +1156,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1181,7 +1181,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1212,7 +1212,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1233,7 +1233,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1274,7 +1274,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1324,10 +1324,10 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>20</v>
@@ -1335,9 +1335,9 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>21</v>
@@ -1345,9 +1345,9 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>22</v>
@@ -1372,7 +1372,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="11">
+  <dataValidations count="11">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a To-do list for projects in this workbook. Enter project details for Project 1 in this worksheet and details of Project 2 and Project 3 in subsequent worksheets" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of worksheet is in this cell. Enter Name of person to complete this project in cell D3 and deadline Date in cell D4. Enter project details in table starting in cell B7" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter To be completed by person Name in cell at right" sqref="B3:C3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -1409,18 +1409,18 @@
       <selection activeCell="B8" sqref="B8:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="53.59765625" customWidth="1"/>
-    <col min="6" max="6" width="2.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1429,8 +1429,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1448,7 +1448,7 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>25</v>
@@ -1457,7 +1457,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1471,55 +1471,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14"/>
       <c r="C16" s="4"/>
       <c r="D16" s="18"/>
@@ -1579,18 +1579,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
-    <col min="3" max="3" width="30.69921875" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
-    <col min="5" max="5" width="53.59765625" customWidth="1"/>
-    <col min="6" max="6" width="2.69921875" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1599,8 +1599,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="E3" s="24"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
@@ -1618,7 +1618,7 @@
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="27" t="s">
         <v>26</v>
@@ -1627,7 +1627,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1641,55 +1641,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C37821-33E1-4610-B898-6C4D2C3B09CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17436E8D-B80C-4978-8BA9-5694CE93B2E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17436E8D-B80C-4978-8BA9-5694CE93B2E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B793C2EA-5B36-42B1-9C82-A44A132D0B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="3795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8760" yWindow="204" windowWidth="13116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing codePage="1252"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>To be completed by:</t>
   </si>
@@ -128,6 +129,39 @@
   </si>
   <si>
     <t>Update Ships Talents Window</t>
+  </si>
+  <si>
+    <t>Character Sheet Main</t>
+  </si>
+  <si>
+    <t>Auto populate Species, Environment, Upbringing, Weapons</t>
+  </si>
+  <si>
+    <t>Populate TR when you click on various checkboxes, and have them unclick</t>
+  </si>
+  <si>
+    <t>Code 2d20 rolling</t>
+  </si>
+  <si>
+    <t>When rolling, have all effeced fields reset.</t>
+  </si>
+  <si>
+    <t>Autoclick one determine on startup</t>
+  </si>
+  <si>
+    <t>Doubleclick weapon damage to auto roll</t>
+  </si>
+  <si>
+    <t>Have weapon damage auto include security value</t>
+  </si>
+  <si>
+    <t>Character Sheet Abilities</t>
+  </si>
+  <si>
+    <t>Auto populate Traits, Talents, Background, Rank</t>
+  </si>
+  <si>
+    <t>Auto adjust Rep boxes when rank changes.</t>
   </si>
 </sst>
 </file>
@@ -137,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +226,12 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Perpetua"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -350,7 +390,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -414,6 +454,18 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3">
       <alignment horizontal="left"/>
@@ -677,7 +729,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="To-do list for projects">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="To-do list for projects" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="19"/>
       <tableStyleElement type="headerRow" dxfId="18"/>
@@ -720,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Project2" displayName="Project2" ref="B7:E16" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="B7:E16" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Project2" displayName="Project2" ref="B7:E17" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B7:E17" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="% done" dataDxfId="9" dataCellStyle="Percent"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Phase" dataDxfId="8"/>
@@ -1105,22 +1157,22 @@
   </sheetPr>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1128,35 +1180,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1181,7 +1233,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1191,7 +1243,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1201,7 +1253,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1212,7 +1264,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1222,7 +1274,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1233,7 +1285,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1243,7 +1295,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1253,7 +1305,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1263,7 +1315,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1274,7 +1326,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1284,7 +1336,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1294,7 +1346,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1304,7 +1356,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1314,7 +1366,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1324,7 +1376,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
         <v>1</v>
@@ -1335,7 +1387,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -1345,7 +1397,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23">
         <v>1</v>
       </c>
@@ -1403,24 +1455,24 @@
     <tabColor theme="5"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E16"/>
+  <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1429,35 +1481,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1471,59 +1523,121 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="2"/>
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="4"/>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" s="18"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="4"/>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="18"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="4"/>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="4"/>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="4"/>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" s="18"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" s="18"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
-      <c r="C16" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1533,7 +1647,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="B8:B16">
+  <conditionalFormatting sqref="B8:B17">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1579,18 +1693,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1599,35 +1713,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1641,55 +1755,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B793C2EA-5B36-42B1-9C82-A44A132D0B04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F54153-D5E6-494F-A94D-1197107C893B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8760" yWindow="204" windowWidth="13116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing codePage="1252"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1161,18 +1160,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1180,8 +1179,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1190,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -1199,8 +1198,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
@@ -1208,7 +1207,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1233,7 +1232,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1243,7 +1242,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1253,7 +1252,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1264,7 +1263,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1274,7 +1273,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1285,7 +1284,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1295,7 +1294,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1305,7 +1304,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1315,7 +1314,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1326,7 +1325,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1336,7 +1335,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1346,7 +1345,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1356,7 +1355,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1366,7 +1365,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1376,7 +1375,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
         <v>1</v>
@@ -1387,7 +1386,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -1397,7 +1396,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
         <v>1</v>
       </c>
@@ -1458,21 +1457,21 @@
   <dimension ref="B1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1481,8 +1480,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1491,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -1500,8 +1499,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1523,9 +1522,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>29</v>
@@ -1535,9 +1534,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1547,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>0</v>
       </c>
@@ -1559,7 +1558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>0</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>0</v>
       </c>
@@ -1583,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>0</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>0</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>0</v>
       </c>
@@ -1619,7 +1618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>0</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>0</v>
       </c>
@@ -1693,18 +1692,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1713,8 +1712,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1723,7 @@
       </c>
       <c r="E3" s="28"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -1732,8 +1731,8 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1740,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1755,55 +1754,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F54153-D5E6-494F-A94D-1197107C893B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208D861-FC30-4FB0-B534-F8016C6D9DAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -1456,8 +1456,8 @@
   </sheetPr>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>29</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>29</v>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B208D861-FC30-4FB0-B534-F8016C6D9DAA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C1B91-A021-4D22-8941-13C197DD65CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8556" yWindow="0" windowWidth="13116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>To be completed by:</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Auto adjust Rep boxes when rank changes.</t>
+  </si>
+  <si>
+    <t>Code Reputation to roll on a click button.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -457,15 +460,9 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3">
       <alignment horizontal="left"/>
     </xf>
@@ -476,6 +473,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1160,18 +1160,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,35 +1179,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1232,7 +1232,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1263,7 +1263,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1284,7 +1284,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1325,7 +1325,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
         <v>1</v>
@@ -1386,7 +1386,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23">
         <v>1</v>
       </c>
@@ -1456,22 +1456,22 @@
   </sheetPr>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1480,35 +1480,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>1</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -1570,9 +1570,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1582,9 +1582,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -1594,9 +1594,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
         <v>0</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
         <v>0</v>
       </c>
@@ -1630,13 +1630,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24">
         <v>0</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1692,18 +1696,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1712,35 +1716,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="30" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1754,55 +1758,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C1B91-A021-4D22-8941-13C197DD65CC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D365C-64F3-4657-A666-6882A1743C31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8556" yWindow="0" windowWidth="13116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="-14115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -463,6 +463,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="3">
       <alignment horizontal="left"/>
     </xf>
@@ -473,9 +476,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1156,22 +1156,22 @@
   </sheetPr>
   <dimension ref="B1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,35 +1179,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1232,7 +1232,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1263,7 +1263,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1284,7 +1284,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1325,7 +1325,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
         <v>1</v>
@@ -1386,7 +1386,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
         <v>1</v>
       </c>
@@ -1456,22 +1456,22 @@
   </sheetPr>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1480,35 +1480,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>1</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>1</v>
       </c>
@@ -1606,9 +1606,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>37</v>
@@ -1618,7 +1618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>0</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="24">
         <v>0</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="25"/>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1696,18 +1696,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.75" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="53.625" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.5703125" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1716,35 +1716,35 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28" t="s">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="26" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="29" t="s">
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+    </row>
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1758,55 +1758,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>

--- a/To-Do.xlsx
+++ b/To-Do.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomaw\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesle\AppData\Roaming\Fantasy Grounds\rulesets\Star Trek Adventures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610D365C-64F3-4657-A666-6882A1743C31}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C04869-D120-4158-AF20-A05C09B89AA3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="-14115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8556" yWindow="0" windowWidth="13116" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="XML CODING" sheetId="1" r:id="rId1"/>
@@ -1160,18 +1160,18 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="s">
         <v>23</v>
       </c>
@@ -1179,8 +1179,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1198,8 +1198,8 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1207,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12">
         <f>AVERAGE(B9:B10)</f>
         <v>0.5</v>
@@ -1232,7 +1232,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12">
         <v>0</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12">
         <f>AVERAGE(B12:B12)</f>
         <v>1</v>
@@ -1263,7 +1263,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="12">
         <v>1</v>
       </c>
@@ -1273,7 +1273,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12">
         <f>AVERAGE(B14:B16)</f>
         <v>1</v>
@@ -1284,7 +1284,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12">
         <f>AVERAGE(B18:B22)</f>
         <v>1</v>
@@ -1325,7 +1325,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12">
         <v>1</v>
       </c>
@@ -1335,7 +1335,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="12">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
       <c r="D19" s="16"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="12">
         <v>1</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="D20" s="16"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23">
         <v>1</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="D21" s="16"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="23">
         <v>1</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="D22" s="16"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="23">
         <f>AVERAGE(B24:B25)</f>
         <v>1</v>
@@ -1386,7 +1386,7 @@
       <c r="D23" s="16"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23">
         <v>1</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="D24" s="16"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="23">
         <v>1</v>
       </c>
@@ -1456,22 +1456,22 @@
   </sheetPr>
   <dimension ref="B1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1480,8 +1480,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1499,8 +1499,8 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13">
         <v>1</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14">
         <v>1</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14">
         <v>1</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14">
         <v>1</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14">
         <v>1</v>
       </c>
@@ -1606,9 +1606,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>37</v>
@@ -1618,9 +1618,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -1630,9 +1630,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>37</v>
@@ -1696,18 +1696,18 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.75" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="53.625" customWidth="1"/>
+    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" s="1" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="9" t="str">
         <f>Title</f>
         <v>STAR TREK ADVENTURES RULESET</v>
@@ -1716,8 +1716,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
@@ -1735,8 +1735,8 @@
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1758,55 +1758,55 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13"/>
       <c r="C8" s="2"/>
       <c r="D8" s="17"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="14"/>
       <c r="C9" s="4"/>
       <c r="D9" s="18"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="14"/>
       <c r="C10" s="4"/>
       <c r="D10" s="18"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="14"/>
       <c r="C11" s="4"/>
       <c r="D11" s="18"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="14"/>
       <c r="C12" s="4"/>
       <c r="D12" s="18"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="14"/>
       <c r="C13" s="4"/>
       <c r="D13" s="18"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="4"/>
       <c r="D14" s="18"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="18"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15"/>
       <c r="C16" s="6"/>
       <c r="D16" s="19"/>
